--- a/battles/Paraitacene/Paraitacene.xlsx
+++ b/battles/Paraitacene/Paraitacene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="27800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Antigonous" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
   <si>
     <t>Kind</t>
   </si>
@@ -118,57 +118,6 @@
   </si>
   <si>
     <t>StackedOn</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>MJ</t>
-  </si>
-  <si>
-    <t>Thebes</t>
-  </si>
-  <si>
-    <t>THI1</t>
-  </si>
-  <si>
-    <t>THI2</t>
-  </si>
-  <si>
-    <t>THI3</t>
-  </si>
-  <si>
-    <t>THI4</t>
-  </si>
-  <si>
-    <t>THI5</t>
-  </si>
-  <si>
-    <t>Sacred Band</t>
-  </si>
-  <si>
-    <t>SBHI</t>
-  </si>
-  <si>
-    <t>Greek allies</t>
-  </si>
-  <si>
-    <t>GLP1</t>
-  </si>
-  <si>
-    <t>GLP2</t>
-  </si>
-  <si>
-    <t>GLP3</t>
-  </si>
-  <si>
-    <t>TLC1</t>
-  </si>
-  <si>
-    <t>TLC2</t>
-  </si>
-  <si>
-    <t>TLC3</t>
   </si>
   <si>
     <t>Étiquettes de lignes</t>
@@ -338,8 +287,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,7 +374,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -459,6 +410,7 @@
     <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -494,6 +446,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1347,6 +1300,63 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M78:N81" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item m="1" x="1"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Nb mens" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A78:B82" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
@@ -1420,127 +1430,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M78:N81" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Nb mens" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N29:O34" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Nb mens" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A29:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -1625,6 +1515,69 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Unit code" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N29:O34" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Nb mens" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1963,7 +1916,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2017,10 +1970,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2036,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L3" si="1">IF(OR(RIGHT(A2)="C",A2="LN"),"Cavalry",IF(RIGHT(A2)="I","Infantry",A2))</f>
@@ -2049,10 +2002,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2068,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="1"/>
@@ -2081,10 +2034,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2100,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L8" si="3">IF(OR(RIGHT(A4)="C",A4="LN"),"Cavalry",IF(RIGHT(A4)="I","Infantry",A4))</f>
@@ -2113,10 +2066,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2132,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="3"/>
@@ -2145,10 +2098,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2164,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="3"/>
@@ -2177,10 +2130,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2196,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="3"/>
@@ -2209,10 +2162,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -2228,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="3"/>
@@ -2241,10 +2194,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2260,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ref="L9:L11" si="6">IF(OR(RIGHT(A9)="C",A9="LN"),"Cavalry",IF(RIGHT(A9)="I","Infantry",A9))</f>
@@ -2273,10 +2226,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2292,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="6"/>
@@ -2305,10 +2258,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2324,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="6"/>
@@ -2337,10 +2290,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2356,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12" si="9">IF(OR(RIGHT(A12)="C",A12="LN"),"Cavalry",IF(RIGHT(A12)="I","Infantry",A12))</f>
@@ -2369,10 +2322,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2388,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L16" si="11">IF(OR(RIGHT(A13)="C",A13="LN"),"Cavalry",IF(RIGHT(A13)="I","Infantry",A13))</f>
@@ -2401,10 +2354,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2420,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="11"/>
@@ -2436,7 +2389,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2468,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2500,7 +2453,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2532,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2564,7 +2517,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -2593,16 +2546,16 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2611,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="14"/>
@@ -2624,16 +2577,16 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2642,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="14"/>
@@ -2655,16 +2608,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2673,21 +2626,21 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -2696,21 +2649,21 @@
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -2719,21 +2672,21 @@
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -2742,21 +2695,21 @@
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -2765,21 +2718,21 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -2788,21 +2741,21 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -2811,21 +2764,21 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -2834,21 +2787,21 @@
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2857,21 +2810,21 @@
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2880,21 +2833,21 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -2903,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -2933,16 +2886,16 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N79" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -2998,7 +2951,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3054,379 +3007,201 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>60</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="M2" t="str">
+      <c r="M2">
         <f t="shared" ref="M2:M3" si="0">IF(OR(RIGHT(A2)="C",A2="LN"),"Cavalry",IF(OR(RIGHT(A2)="I",A2="PH",A2="LP"),"Infantry",A2))</f>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N3" si="1">IF(M2="Cavalry",G2*100,IF(M2="Infantry",G2*150,0))</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="M3" t="str">
+      <c r="M3">
         <f t="shared" si="0"/>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="M4" t="str">
+      <c r="M4">
         <f t="shared" ref="M4:M5" si="2">IF(OR(RIGHT(A4)="C",A4="LN"),"Cavalry",IF(OR(RIGHT(A4)="I",A4="PH",A4="LP"),"Infantry",A4))</f>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N5" si="3">IF(M4="Cavalry",G4*100,IF(M4="Infantry",G4*150,0))</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="M5" t="str">
+      <c r="M5">
         <f t="shared" si="2"/>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="M6" t="str">
+      <c r="M6">
         <f t="shared" ref="M6:M12" si="4">IF(OR(RIGHT(A6)="C",A6="LN"),"Cavalry",IF(OR(RIGHT(A6)="I",A6="PH",A6="LP"),"Infantry",A6))</f>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:N12" si="5">IF(M6="Cavalry",G6*100,IF(M6="Infantry",G6*150,0))</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="M7" t="str">
+      <c r="M7">
         <f t="shared" si="4"/>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="M8">
         <f t="shared" si="4"/>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="M9">
         <f t="shared" si="4"/>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="M10">
         <f t="shared" si="4"/>
-        <v>Infantry</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="M11">
         <f t="shared" si="4"/>
-        <v>Cavalry</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="M12">
         <f t="shared" si="4"/>
-        <v>Cavalry</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="M13">
         <f t="shared" ref="M13:M22" si="6">IF(OR(RIGHT(A13)="C",A13="LN"),"Cavalry",IF(OR(RIGHT(A13)="I",A13="PH",A13="LP"),"Infantry",A13))</f>
-        <v>Cavalry</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" ref="N13:N22" si="7">IF(M13="Cavalry",G13*100,IF(M13="Infantry",G13*150,0))</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3614,15 +3389,15 @@
       </c>
       <c r="F26">
         <f>SUM(F2:F22)</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f>SUM(G2:G22)</f>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f>SUM(N2:N22)</f>
-        <v>19050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3644,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O30" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3794,50 +3569,50 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
